--- a/Jogos_do_Dia/2023-03-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -748,28 +748,28 @@
         <v>2.66</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -893,52 +893,52 @@
         <v>52</v>
       </c>
       <c r="F4">
-        <v>3.22</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>3.06</v>
+        <v>2.9</v>
       </c>
       <c r="H4">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V4">
         <v>1.27</v>
@@ -1018,10 +1018,10 @@
         <v>2.4</v>
       </c>
       <c r="M5">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
         <v>1.48</v>
@@ -1101,52 +1101,52 @@
         <v>54</v>
       </c>
       <c r="F6">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="G6">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V6">
         <v>1.91</v>
@@ -1413,13 +1413,13 @@
         <v>57</v>
       </c>
       <c r="F9">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="G9">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1434,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1517,13 +1517,13 @@
         <v>58</v>
       </c>
       <c r="F10">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="G10">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H10">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="I10">
         <v>1.05</v>
@@ -1636,10 +1636,10 @@
         <v>7.5</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M11">
         <v>2.1</v>
@@ -1746,22 +1746,22 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S12">
         <v>0</v>

--- a/Jogos_do_Dia/2023-03-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -733,10 +733,10 @@
         <v>2.3</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>5.5</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -852,16 +852,16 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE3">
         <v>1.3</v>
@@ -893,19 +893,19 @@
         <v>52</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="G4">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="H4">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I4">
         <v>1.05</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K4">
         <v>1.38</v>
@@ -914,10 +914,10 @@
         <v>2.71</v>
       </c>
       <c r="M4">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N4">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="O4">
         <v>1.44</v>
@@ -935,7 +935,7 @@
         <v>1.58</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U4">
         <v>1.33</v>
@@ -956,28 +956,28 @@
         <v>2.93</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -997,13 +997,13 @@
         <v>53</v>
       </c>
       <c r="F5">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="G5">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I5">
         <v>1.1</v>
@@ -1012,16 +1012,16 @@
         <v>8</v>
       </c>
       <c r="K5">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="L5">
-        <v>2.4</v>
+        <v>2.49</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N5">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O5">
         <v>1.48</v>
@@ -1104,10 +1104,10 @@
         <v>2.35</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H6">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="I6">
         <v>1.08</v>
@@ -1122,10 +1122,10 @@
         <v>3.05</v>
       </c>
       <c r="M6">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N6">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="O6">
         <v>1.45</v>
@@ -1164,28 +1164,28 @@
         <v>2.67</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1205,13 +1205,13 @@
         <v>55</v>
       </c>
       <c r="F7">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G7">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>1.05</v>
@@ -1226,10 +1226,10 @@
         <v>3.15</v>
       </c>
       <c r="M7">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="N7">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="O7">
         <v>1.4</v>
@@ -1372,28 +1372,28 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1413,10 +1413,10 @@
         <v>57</v>
       </c>
       <c r="F9">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H9">
         <v>2.45</v>
@@ -1434,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="N9">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1517,13 +1517,13 @@
         <v>58</v>
       </c>
       <c r="F10">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="G10">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H10">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I10">
         <v>1.05</v>
@@ -1538,10 +1538,10 @@
         <v>3.5</v>
       </c>
       <c r="M10">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="N10">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="O10">
         <v>1.36</v>
@@ -1684,28 +1684,28 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1734,16 +1734,16 @@
         <v>4.87</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M12">
         <v>2.15</v>
@@ -1764,13 +1764,13 @@
         <v>1.67</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="V12">
         <v>1</v>
@@ -1788,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AG12">
         <v>0</v>
